--- a/work_now/数据埋点-5.29.xlsx
+++ b/work_now/数据埋点-5.29.xlsx
@@ -2781,9 +2781,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2898,9 +2898,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2915,7 +2931,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2930,7 +2995,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2944,24 +3016,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2976,20 +3033,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3001,49 +3044,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="40">
@@ -3133,7 +3133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,7 +3151,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3163,13 +3235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3181,49 +3253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3235,13 +3265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,31 +3277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3655,17 +3655,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3700,11 +3709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3713,22 +3728,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3758,10 +3758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3770,16 +3770,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3788,124 +3788,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6759,8 +6759,8 @@
   </sheetPr>
   <dimension ref="B1:F1083"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
-      <selection activeCell="D998" sqref="D998"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="D431" sqref="D431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
